--- a/project/results/RAGAS_pipeline_evaluation/results.xlsx
+++ b/project/results/RAGAS_pipeline_evaluation/results.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Context Precision</t>
+          <t>Context Relevancy</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -472,16 +472,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5475845341386515</v>
+        <v>0.4395570407583287</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5555555555</v>
+        <v>0.2515302417263202</v>
       </c>
       <c r="D2" t="n">
-        <v>0.746031746031746</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7106354874221523</v>
+        <v>0.7084887795059791</v>
       </c>
       <c r="F2" t="n">
         <v>0.7870370370370371</v>
@@ -494,16 +494,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7207635128552037</v>
+        <v>0.4291084247659642</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9999999999</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9131367931168796</v>
+        <v>0.9008433559245952</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -538,16 +538,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9391726164736258</v>
+        <v>0.873494448811459</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9999999999</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9758101162398436</v>
+        <v>0.9836441685505647</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
